--- a/foods_new.xlsx
+++ b/foods_new.xlsx
@@ -3,25 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F00FE43-556C-47E8-8C97-406B51C5FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F84271E-4A23-47FC-A417-CE08C2688D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Μοσχάρι" sheetId="8" r:id="rId2"/>
-    <sheet name="Κοτόπουλο" sheetId="9" r:id="rId3"/>
-    <sheet name="Μακαρόνια " sheetId="13" r:id="rId4"/>
-    <sheet name="ΑΥΓΑ" sheetId="18" r:id="rId5"/>
-    <sheet name="Οστρακοειδή" sheetId="7" r:id="rId6"/>
-    <sheet name="ΟΣΠΡΙΑ" sheetId="5" r:id="rId7"/>
-    <sheet name="ΛΑΔΕΡΑ" sheetId="4" r:id="rId8"/>
-    <sheet name="ΨΑΡΙΑ" sheetId="6" r:id="rId9"/>
-    <sheet name="JUNK FOOD" sheetId="20" r:id="rId10"/>
-    <sheet name="ΠΡΩΙΝΟ" sheetId="14" r:id="rId11"/>
-    <sheet name="ΔΕΚΑΤΙΑΝΟ" sheetId="19" r:id="rId12"/>
-    <sheet name="ΑΠΟΓΕΥΜΑΤΙΝΟ" sheetId="16" r:id="rId13"/>
-    <sheet name="ΒΡΑΔΙΝΟ " sheetId="17" r:id="rId14"/>
+    <sheet name="beef" sheetId="8" r:id="rId2"/>
+    <sheet name="chicken" sheetId="9" r:id="rId3"/>
+    <sheet name="pasta" sheetId="13" r:id="rId4"/>
+    <sheet name="eggs" sheetId="18" r:id="rId5"/>
+    <sheet name="selfish" sheetId="7" r:id="rId6"/>
+    <sheet name="legumes" sheetId="5" r:id="rId7"/>
+    <sheet name="ladera" sheetId="4" r:id="rId8"/>
+    <sheet name="fish" sheetId="6" r:id="rId9"/>
+    <sheet name="junk_food" sheetId="20" r:id="rId10"/>
+    <sheet name="breakfast" sheetId="14" r:id="rId11"/>
+    <sheet name="snack" sheetId="19" r:id="rId12"/>
+    <sheet name="snack2" sheetId="16" r:id="rId13"/>
+    <sheet name="dinner" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1812,7 +1812,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2761,7 +2761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5954C-E21D-45C4-8B1E-77984BA8B046}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3122,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D7C5D5-187F-47F5-9E28-5BCE031B66D8}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3486,7 +3488,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD53"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5017,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2440381-B4B9-4BC5-8D0C-4918C58DFDB4}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8070,8 +8072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C502930-2270-4438-A701-83F6FCE812A4}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
